--- a/База данных пользователей.xlsx
+++ b/База данных пользователей.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>ФИО</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Тропарев Максим Юрьевич</t>
+  </si>
+  <si>
+    <t>Каратунов Максим Олегович</t>
   </si>
   <si>
     <t>Трошкин Юрий Николаевич</t>
@@ -118,7 +121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +135,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,7 +150,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -168,28 +184,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,383 +527,383 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
+      <c r="L1" s="3"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
+      <c r="N1" s="3"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="2"/>
+      <c r="P1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="2"/>
+      <c r="N2" s="3"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="2"/>
+      <c r="P2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="2" t="s">
-        <v>9</v>
+      <c r="N3" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="P3" s="2"/>
+      <c r="P3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5">
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9">
         <v>2</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="H4" s="9">
         <v>2</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="5">
+      <c r="J4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="9">
         <v>2</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="N4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="9">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5">
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9">
         <v>20</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="9">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="9">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="9">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="5">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="5">
-        <v>10</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="C6" s="9">
         <v>30</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="5">
+      <c r="G6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="9">
         <v>20</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="J6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="9">
         <v>20</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="5">
+      <c r="N6" s="9">
         <v>2</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="6"/>
+      <c r="O6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9">
         <v>50</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="F7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="9">
         <v>50</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="J7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="9">
         <v>50</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="5">
+      <c r="N7" s="9">
         <v>3</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="6"/>
+      <c r="O7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="3"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="2"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="2"/>
+      <c r="P8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
+      <c r="F10" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="3"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="2"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
+      <c r="F11" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
+      <c r="F12" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="2"/>
+      <c r="P12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="4" t="s">
-        <v>13</v>
+      <c r="F13" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="2"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="2"/>
+      <c r="P13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="4" t="s">
-        <v>14</v>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="2"/>
+      <c r="P14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -887,47 +915,47 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="24.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>289765438944</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>89586313334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>567890653456</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>89554353637</v>
       </c>
     </row>
@@ -936,9 +964,20 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
+        <v>450099999988</v>
+      </c>
+      <c r="C4" s="2">
+        <v>89269806838</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
         <v>789654321111</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="3">
         <v>89993738297</v>
       </c>
     </row>
